--- a/cro/Grand_slam_table_norm.xlsx
+++ b/cro/Grand_slam_table_norm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\Grand-Slam-database\cro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9737B2F1-3F6B-4C80-AB7F-3A87BA7B8EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C744C9-5306-40B2-A7B9-6E401DD8457C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B936E176-7309-4377-81B0-28528B1442FB}"/>
+    <workbookView xWindow="3400" yWindow="1870" windowWidth="14400" windowHeight="7360" xr2:uid="{B936E176-7309-4377-81B0-28528B1442FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Turnir</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Meč</t>
   </si>
   <si>
-    <t>Podloga</t>
-  </si>
-  <si>
     <t>Stadij</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Datum meča</t>
   </si>
   <si>
-    <t>trava</t>
-  </si>
-  <si>
     <t>polufinale</t>
   </si>
   <si>
@@ -75,18 +69,12 @@
     <t>01. 03. 2008.</t>
   </si>
   <si>
-    <t>beton</t>
-  </si>
-  <si>
     <t>za broncu</t>
   </si>
   <si>
     <t>03. 03. 2008.</t>
   </si>
   <si>
-    <t>zemlja</t>
-  </si>
-  <si>
     <t>finale</t>
   </si>
   <si>
@@ -187,6 +175,12 @@
   </si>
   <si>
     <t>MečTurnir</t>
+  </si>
+  <si>
+    <t>Izlasci na mrežu</t>
+  </si>
+  <si>
+    <t>Broj terena</t>
   </si>
 </sst>
 </file>
@@ -650,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDFD43C-0EC4-4D8E-9742-8E5A2867B58E}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -667,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -675,22 +669,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>2</v>
@@ -704,22 +698,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
+      <c r="E3" s="5">
+        <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="6">
         <v>9.0972222222222218E-2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
@@ -733,22 +727,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
+      <c r="E4" s="5">
+        <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="6">
         <v>0.11458333333333333</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
@@ -762,22 +756,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
+      <c r="E5" s="5">
+        <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" s="6">
         <v>8.1944444444444445E-2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
@@ -791,22 +785,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
+      <c r="E6" s="5">
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G6" s="6">
         <v>0.11805555555555557</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J6" s="5">
         <v>4</v>
@@ -847,34 +841,30 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="5"/>
       <c r="H11" s="6"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="6"/>
@@ -885,19 +875,16 @@
         <v>77</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
+        <v>77</v>
+      </c>
       <c r="F13" s="5">
-        <v>77</v>
-      </c>
-      <c r="G13" s="5">
         <v>1</v>
       </c>
       <c r="H13" s="6"/>
@@ -908,19 +895,16 @@
         <v>77</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
+        <v>77</v>
+      </c>
       <c r="F14" s="5">
-        <v>77</v>
-      </c>
-      <c r="G14" s="5">
         <v>2</v>
       </c>
       <c r="H14" s="6"/>
@@ -931,18 +915,16 @@
         <v>91</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="5">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <v>91</v>
       </c>
       <c r="F15" s="5">
-        <v>91</v>
-      </c>
-      <c r="G15" s="5">
         <v>3</v>
       </c>
     </row>
@@ -951,87 +933,86 @@
         <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="5">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
+        <v>83</v>
+      </c>
+      <c r="F16" s="5">
         <v>4</v>
       </c>
-      <c r="F16" s="5">
-        <v>83</v>
-      </c>
-      <c r="G16" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>83</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
+        <v>83</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="5">
-        <v>5</v>
-      </c>
-      <c r="F17" s="5">
-        <v>83</v>
-      </c>
-      <c r="G17" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="F21" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>44</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" s="5">
         <v>3</v>
@@ -1054,16 +1035,19 @@
       <c r="J22" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>44</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D23" s="5">
         <v>2</v>
@@ -1086,16 +1070,19 @@
       <c r="J23" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>51</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
@@ -1118,16 +1105,19 @@
       <c r="J24" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>51</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -1150,16 +1140,19 @@
       <c r="J25" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>54</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5">
         <v>0</v>
@@ -1182,16 +1175,19 @@
       <c r="J26" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>54</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D27" s="5">
         <v>2</v>
@@ -1214,16 +1210,19 @@
       <c r="J27" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>72</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
@@ -1246,16 +1245,19 @@
       <c r="J28" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>72</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D29" s="5">
         <v>3</v>
@@ -1278,27 +1280,30 @@
       <c r="J29" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">

--- a/cro/Grand_slam_table_norm.xlsx
+++ b/cro/Grand_slam_table_norm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\Grand-Slam-database\cro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C744C9-5306-40B2-A7B9-6E401DD8457C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BEBE44-0767-47C8-83CC-27CA4992C9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="1870" windowWidth="14400" windowHeight="7360" xr2:uid="{B936E176-7309-4377-81B0-28528B1442FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B936E176-7309-4377-81B0-28528B1442FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Turnir</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>MečSudac</t>
-  </si>
-  <si>
-    <t>MečTurnir</t>
   </si>
   <si>
     <t>Izlasci na mrežu</t>
@@ -644,27 +641,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDFD43C-0EC4-4D8E-9742-8E5A2867B58E}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="15.6328125" customWidth="1"/>
+    <col min="1" max="14" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -675,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
@@ -686,14 +681,12 @@
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,14 +708,12 @@
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,14 +735,12 @@
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="5">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -773,14 +762,12 @@
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -802,14 +789,12 @@
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="5">
-        <v>4</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="E7" s="5"/>
@@ -818,28 +803,28 @@
       <c r="H7" s="6"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -850,7 +835,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -870,7 +855,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>77</v>
       </c>
@@ -890,7 +875,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>77</v>
       </c>
@@ -910,7 +895,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>91</v>
       </c>
@@ -928,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>83</v>
       </c>
@@ -946,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>83</v>
       </c>
@@ -964,12 +949,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
@@ -1001,10 +986,10 @@
         <v>33</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>44</v>
       </c>
@@ -1039,7 +1024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>44</v>
       </c>
@@ -1074,7 +1059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>51</v>
       </c>
@@ -1109,7 +1094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>51</v>
       </c>
@@ -1144,7 +1129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>54</v>
       </c>
@@ -1179,7 +1164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>54</v>
       </c>
@@ -1214,7 +1199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>72</v>
       </c>
@@ -1249,7 +1234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>72</v>
       </c>
@@ -1284,7 +1269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>44</v>
       </c>
@@ -1292,7 +1277,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -1306,7 +1291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -1320,7 +1305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -1334,7 +1319,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>1</v>
       </c>
@@ -1348,7 +1333,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>3</v>
       </c>
@@ -1362,7 +1347,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>2</v>
       </c>
@@ -1376,7 +1361,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>3</v>
       </c>
@@ -1390,7 +1375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>2</v>
       </c>
@@ -1404,7 +1389,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>4</v>
       </c>

--- a/cro/Grand_slam_table_norm.xlsx
+++ b/cro/Grand_slam_table_norm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\Grand-Slam-database\cro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BEBE44-0767-47C8-83CC-27CA4992C9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5B506A-B486-4DAE-A2C8-79171CF50A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B936E176-7309-4377-81B0-28528B1442FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>Turnir</t>
   </si>
@@ -642,7 +642,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,12 +714,8 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
       <c r="D4" s="5">
         <v>2</v>
       </c>
@@ -741,12 +737,8 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
       <c r="D5" s="5">
         <v>3</v>
       </c>
@@ -768,12 +760,8 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
       <c r="D6" s="5">
         <v>4</v>
       </c>

--- a/cro/Grand_slam_table_norm.xlsx
+++ b/cro/Grand_slam_table_norm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\Grand-Slam-database\cro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5B506A-B486-4DAE-A2C8-79171CF50A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2635CE-8064-4D49-942A-A45D986C8C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B936E176-7309-4377-81B0-28528B1442FB}"/>
   </bookViews>
@@ -639,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDFD43C-0EC4-4D8E-9742-8E5A2867B58E}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,7 +919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>83</v>
       </c>
@@ -937,12 +937,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
@@ -952,32 +952,11 @@
       <c r="C21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E21" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>44</v>
       </c>
@@ -987,32 +966,14 @@
       <c r="C22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="5">
-        <v>3</v>
-      </c>
-      <c r="E22" s="5">
-        <v>82</v>
-      </c>
-      <c r="F22" s="5">
-        <v>4</v>
-      </c>
-      <c r="G22" s="5">
-        <v>12</v>
-      </c>
-      <c r="H22" s="5">
-        <v>6</v>
-      </c>
-      <c r="I22" s="5">
-        <v>48</v>
-      </c>
-      <c r="J22" s="5">
-        <v>24</v>
-      </c>
-      <c r="K22" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>44</v>
       </c>
@@ -1022,32 +983,14 @@
       <c r="C23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="5">
-        <v>2</v>
-      </c>
-      <c r="E23" s="5">
-        <v>55</v>
+      <c r="E23" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="F23" s="5">
-        <v>3</v>
-      </c>
-      <c r="G23" s="5">
-        <v>8</v>
-      </c>
-      <c r="H23" s="5">
-        <v>7</v>
-      </c>
-      <c r="I23" s="5">
-        <v>62</v>
-      </c>
-      <c r="J23" s="5">
-        <v>18</v>
-      </c>
-      <c r="K23" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>51</v>
       </c>
@@ -1057,32 +1000,14 @@
       <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5">
-        <v>32</v>
+      <c r="E24" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
-        <v>10</v>
-      </c>
-      <c r="H24" s="5">
-        <v>15</v>
-      </c>
-      <c r="I24" s="5">
-        <v>42</v>
-      </c>
-      <c r="J24" s="5">
-        <v>30</v>
-      </c>
-      <c r="K24" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>51</v>
       </c>
@@ -1092,32 +1017,14 @@
       <c r="C25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="5">
-        <v>3</v>
-      </c>
-      <c r="E25" s="5">
-        <v>80</v>
+      <c r="E25" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="F25" s="5">
-        <v>5</v>
-      </c>
-      <c r="G25" s="5">
-        <v>7</v>
-      </c>
-      <c r="H25" s="5">
-        <v>10</v>
-      </c>
-      <c r="I25" s="5">
-        <v>46</v>
-      </c>
-      <c r="J25" s="5">
-        <v>34</v>
-      </c>
-      <c r="K25" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>54</v>
       </c>
@@ -1127,32 +1034,14 @@
       <c r="C26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>12</v>
+      <c r="E26" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <v>16</v>
-      </c>
-      <c r="H26" s="5">
-        <v>18</v>
-      </c>
-      <c r="I26" s="5">
-        <v>12</v>
-      </c>
-      <c r="J26" s="5">
-        <v>28</v>
-      </c>
-      <c r="K26" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>54</v>
       </c>
@@ -1162,32 +1051,14 @@
       <c r="C27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="5">
-        <v>2</v>
-      </c>
-      <c r="E27" s="5">
-        <v>52</v>
+      <c r="E27" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="F27" s="5">
-        <v>4</v>
-      </c>
-      <c r="G27" s="5">
-        <v>8</v>
-      </c>
-      <c r="H27" s="5">
-        <v>10</v>
-      </c>
-      <c r="I27" s="5">
-        <v>42</v>
-      </c>
-      <c r="J27" s="5">
-        <v>38</v>
-      </c>
-      <c r="K27" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>72</v>
       </c>
@@ -1197,32 +1068,14 @@
       <c r="C28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="5">
-        <v>3</v>
-      </c>
-      <c r="E28" s="5">
-        <v>80</v>
+      <c r="E28" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="F28" s="5">
-        <v>6</v>
-      </c>
-      <c r="G28" s="5">
-        <v>6</v>
-      </c>
-      <c r="H28" s="5">
-        <v>8</v>
-      </c>
-      <c r="I28" s="5">
-        <v>36</v>
-      </c>
-      <c r="J28" s="5">
-        <v>8</v>
-      </c>
-      <c r="K28" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>72</v>
       </c>
@@ -1232,163 +1085,312 @@
       <c r="C29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="5">
-        <v>3</v>
-      </c>
-      <c r="E29" s="5">
-        <v>91</v>
+      <c r="E29" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="5">
-        <v>8</v>
-      </c>
-      <c r="G29" s="5">
-        <v>7</v>
-      </c>
-      <c r="H29" s="5">
-        <v>5</v>
-      </c>
-      <c r="I29" s="5">
-        <v>68</v>
-      </c>
-      <c r="J29" s="5">
-        <v>16</v>
-      </c>
-      <c r="K29" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>1</v>
       </c>
       <c r="B33" s="5">
         <v>44</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>3</v>
+      <c r="C33" s="5">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5">
+        <v>82</v>
       </c>
       <c r="E33" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F33" s="5">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5">
+        <v>6</v>
+      </c>
+      <c r="H33" s="5">
+        <v>48</v>
+      </c>
+      <c r="I33" s="5">
+        <v>24</v>
+      </c>
+      <c r="J33" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>4</v>
       </c>
       <c r="B34" s="5">
         <v>44</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>3</v>
+      <c r="C34" s="5">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5">
+        <v>55</v>
       </c>
       <c r="E34" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F34" s="5">
+        <v>8</v>
+      </c>
+      <c r="G34" s="5">
+        <v>7</v>
+      </c>
+      <c r="H34" s="5">
+        <v>62</v>
+      </c>
+      <c r="I34" s="5">
+        <v>18</v>
+      </c>
+      <c r="J34" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>1</v>
       </c>
       <c r="B35" s="5">
         <v>51</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>3</v>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <v>32</v>
       </c>
       <c r="E35" s="5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>10</v>
+      </c>
+      <c r="G35" s="5">
+        <v>15</v>
+      </c>
+      <c r="H35" s="5">
+        <v>42</v>
+      </c>
+      <c r="I35" s="5">
+        <v>30</v>
+      </c>
+      <c r="J35" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>3</v>
       </c>
       <c r="B36" s="5">
         <v>51</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>3</v>
+      <c r="C36" s="5">
+        <v>3</v>
+      </c>
+      <c r="D36" s="5">
+        <v>80</v>
       </c>
       <c r="E36" s="5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F36" s="5">
+        <v>7</v>
+      </c>
+      <c r="G36" s="5">
+        <v>10</v>
+      </c>
+      <c r="H36" s="5">
+        <v>46</v>
+      </c>
+      <c r="I36" s="5">
+        <v>34</v>
+      </c>
+      <c r="J36" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>2</v>
       </c>
       <c r="B37" s="5">
         <v>54</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>3</v>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>12</v>
       </c>
       <c r="E37" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>16</v>
+      </c>
+      <c r="G37" s="5">
+        <v>18</v>
+      </c>
+      <c r="H37" s="5">
+        <v>12</v>
+      </c>
+      <c r="I37" s="5">
+        <v>28</v>
+      </c>
+      <c r="J37" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>3</v>
       </c>
       <c r="B38" s="5">
         <v>54</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>3</v>
+      <c r="C38" s="5">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5">
+        <v>52</v>
       </c>
       <c r="E38" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F38" s="5">
+        <v>8</v>
+      </c>
+      <c r="G38" s="5">
+        <v>10</v>
+      </c>
+      <c r="H38" s="5">
+        <v>42</v>
+      </c>
+      <c r="I38" s="5">
+        <v>38</v>
+      </c>
+      <c r="J38" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>2</v>
       </c>
       <c r="B39" s="5">
         <v>72</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>3</v>
+      <c r="C39" s="5">
+        <v>3</v>
+      </c>
+      <c r="D39" s="5">
+        <v>80</v>
       </c>
       <c r="E39" s="5">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F39" s="5">
+        <v>6</v>
+      </c>
+      <c r="G39" s="5">
+        <v>8</v>
+      </c>
+      <c r="H39" s="5">
+        <v>36</v>
+      </c>
+      <c r="I39" s="5">
+        <v>8</v>
+      </c>
+      <c r="J39" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>4</v>
       </c>
       <c r="B40" s="5">
         <v>72</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>3</v>
+      <c r="C40" s="5">
+        <v>3</v>
+      </c>
+      <c r="D40" s="5">
+        <v>91</v>
       </c>
       <c r="E40" s="5">
-        <v>72</v>
+        <v>8</v>
+      </c>
+      <c r="F40" s="5">
+        <v>7</v>
+      </c>
+      <c r="G40" s="5">
+        <v>5</v>
+      </c>
+      <c r="H40" s="5">
+        <v>68</v>
+      </c>
+      <c r="I40" s="5">
+        <v>16</v>
+      </c>
+      <c r="J40" s="5">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/cro/Grand_slam_table_norm.xlsx
+++ b/cro/Grand_slam_table_norm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\Grand-Slam-database\cro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2635CE-8064-4D49-942A-A45D986C8C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C1BA70-BE18-4FDA-AEF2-0D4AEF0AFB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B936E176-7309-4377-81B0-28528B1442FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Turnir</t>
   </si>
@@ -642,7 +642,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,13 +865,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
@@ -885,13 +885,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
@@ -902,15 +902,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>83</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5">
         <v>83</v>
@@ -920,16 +914,6 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>83</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="5"/>
       <c r="E17" s="5">
         <v>83</v>
       </c>
@@ -975,13 +959,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>3</v>
@@ -992,113 +976,61 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
+        <v>54</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5">
         <v>51</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="5">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="5">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>54</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="E26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="5">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>54</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="5">
-        <v>54</v>
-      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>72</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>72</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="5">
-        <v>72</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="5">
-        <v>72</v>
-      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">

--- a/cro/Grand_slam_table_norm.xlsx
+++ b/cro/Grand_slam_table_norm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\Grand-Slam-database\cro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C1BA70-BE18-4FDA-AEF2-0D4AEF0AFB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B0EEA8-7B14-4A70-BD40-E5A9578FA979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B936E176-7309-4377-81B0-28528B1442FB}"/>
   </bookViews>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDFD43C-0EC4-4D8E-9742-8E5A2867B58E}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,12 +914,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E17" s="5">
-        <v>83</v>
-      </c>
-      <c r="F17" s="5">
-        <v>5</v>
-      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
